--- a/DOCUMENTACIÓN_G#7/1.ELICITACIÓN/1.6 BACKLOG/BACKLOG _V7.0.xlsx
+++ b/DOCUMENTACIÓN_G#7/1.ELICITACIÓN/1.6 BACKLOG/BACKLOG _V7.0.xlsx
@@ -213,9 +213,6 @@
     <t>Presentar información clara y organizada</t>
   </si>
   <si>
-    <t>Seguridad de Usuario</t>
-  </si>
-  <si>
     <t>Validar identidad de mi usuario.</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Mensaje según el caso "Reiniciando el ingreso de datos"; "Datos guardados en 'Reporte_Pagos.txt"</t>
+  </si>
+  <si>
+    <t>Acceso al Sisitema</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1858,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1909,7 +1909,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>54</v>
@@ -1933,7 +1933,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>48</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>55</v>
@@ -3008,7 +3008,9 @@
   </sheetPr>
   <dimension ref="A1:I997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3022,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3059,25 +3061,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -3101,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -3119,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -3137,7 +3139,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -3155,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3205,7 +3207,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>48</v>
@@ -3215,7 +3217,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -3234,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -3248,7 +3250,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
@@ -3262,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -4339,7 +4341,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="37"/>
     </row>
@@ -4374,19 +4376,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>46</v>
@@ -4413,10 +4415,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4434,7 +4436,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4452,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>49</v>
@@ -4466,7 +4468,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
